--- a/biology/Zoologie/Echinasteridae/Echinasteridae.xlsx
+++ b/biology/Zoologie/Echinasteridae/Echinasteridae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Echinasteridae sont une famille d'étoiles de mer (Asteroidea) de l'ordre des Spinulosida.
 </t>
@@ -511,9 +523,11 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce sont des étoiles régulières au disque central très réduit, autour duquel rayonnent cinq bras cylindriques sans marge distincte entre les faces orale et aborale. Le squelette calcaire réticulé affleure sous l'épiderme, qui est dépourvu de granulation[1]. Ces étoiles n'ont ni paxille ni pédicellaire[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont des étoiles régulières au disque central très réduit, autour duquel rayonnent cinq bras cylindriques sans marge distincte entre les faces orale et aborale. Le squelette calcaire réticulé affleure sous l'épiderme, qui est dépourvu de granulation. Ces étoiles n'ont ni paxille ni pédicellaire.
 Un risque de confusion existe avec leurs cousines tropicales éloignées les Ophidiasteridae.
 </t>
         </is>
@@ -543,7 +557,9 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Dictyaster xenophilus
